--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:16:09+00:00</t>
+    <t>2024-10-30T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:20:03+00:00</t>
+    <t>2024-10-30T10:28:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:28:34+00:00</t>
+    <t>2024-10-30T10:31:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:31:07+00:00</t>
+    <t>2024-10-30T10:47:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:47:34+00:00</t>
+    <t>2024-10-30T10:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:56:03+00:00</t>
+    <t>2024-10-30T13:21:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:21:16+00:00</t>
+    <t>2024-10-30T13:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:25:18+00:00</t>
+    <t>2024-10-30T13:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:40:48+00:00</t>
+    <t>2024-10-30T13:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:56:40+00:00</t>
+    <t>2024-10-30T13:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:57:24+00:00</t>
+    <t>2024-10-30T16:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:05:44+00:00</t>
+    <t>2024-10-30T16:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:09:37+00:00</t>
+    <t>2024-10-30T16:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>93</v>
@@ -5726,7 +5726,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>93</v>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:49:36+00:00</t>
+    <t>2024-10-30T17:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T17:29:46+00:00</t>
+    <t>2024-11-08T13:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1496,7 +1496,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}mes-ir:L'intervalle de référence est obligatoire dans le cas où la donnée provient d'un résultat de biologie. {(extension.where(url= 'https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability').extension.where(url = 'identityStatus').value.code = 'VALI') implies (identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.8').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.9').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.10').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.11').exists())}</t>
   </si>
   <si>
     <t>OBX.7</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:33:24+00:00</t>
+    <t>2024-11-08T13:57:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:57:59+00:00</t>
+    <t>2024-12-11T16:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1496,7 +1496,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}mes-ir:L'intervalle de référence est obligatoire dans le cas où la donnée provient d'un résultat de biologie. {(extension.where(url= 'https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability').extension.where(url = 'identityStatus').value.code = 'VALI') implies (identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.8').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.9').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.10').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.11').exists())}</t>
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}mes-ir:L'intervalle de référence est obligatoire dans le cas où la donnée provient d'un compte rendu de biologie. {null}</t>
   </si>
   <si>
     <t>OBX.7</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:27:42+00:00</t>
+    <t>2024-12-11T16:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:36:57+00:00</t>
+    <t>2024-12-11T16:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:39:06+00:00</t>
+    <t>2024-12-11T17:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1028,7 +1028,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>g/L</t>
+    <t>mmol/L</t>
   </si>
   <si>
     <t>Quantity.unit</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:02:02+00:00</t>
+    <t>2024-12-11T17:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:11:59+00:00</t>
+    <t>2024-12-13T13:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:15+00:00</t>
+    <t>2024-12-13T13:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:38:24+00:00</t>
+    <t>2024-12-13T13:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:39:29+00:00</t>
+    <t>2024-12-13T13:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>93</v>
